--- a/store/video_reviews.xlsx
+++ b/store/video_reviews.xlsx
@@ -5520,13 +5520,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -5573,14 +5579,14 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5902,7 +5908,7 @@
     <col min="10" max="10" style="5" width="9.290714285714287" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5934,7 +5940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="3">
         <v>213</v>
       </c>
@@ -5966,7 +5972,7 @@
         <v>395</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="3">
         <v>214</v>
       </c>
@@ -5998,7 +6004,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="3">
         <v>215</v>
       </c>
@@ -6030,7 +6036,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="3">
         <v>216</v>
       </c>
@@ -6062,7 +6068,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="3">
         <v>217</v>
       </c>
@@ -6094,7 +6100,7 @@
         <v>72</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="3">
         <v>218</v>
       </c>
@@ -6124,7 +6130,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="3">
         <v>219</v>
       </c>
@@ -6156,7 +6162,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="3">
         <v>220</v>
       </c>
@@ -6188,7 +6194,7 @@
         <v>471</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="3">
         <v>221</v>
       </c>
@@ -6220,7 +6226,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="3">
         <v>222</v>
       </c>
@@ -6252,7 +6258,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="3">
         <v>223</v>
       </c>
@@ -6284,7 +6290,7 @@
         <v>315</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="3">
         <v>224</v>
       </c>
@@ -6316,7 +6322,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="3">
         <v>225</v>
       </c>
@@ -6348,7 +6354,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="3">
         <v>226</v>
       </c>
@@ -6380,7 +6386,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="3">
         <v>227</v>
       </c>
@@ -6412,7 +6418,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="3">
         <v>228</v>
       </c>
@@ -6444,7 +6450,7 @@
         <v>346</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="3">
         <v>229</v>
       </c>
@@ -6474,7 +6480,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="3">
         <v>230</v>
       </c>
